--- a/patient_balk_df.xlsx
+++ b/patient_balk_df.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -491,10 +491,10 @@
         <v>1200</v>
       </c>
       <c r="E2" t="n">
-        <v>1971.751071147242</v>
+        <v>1400.086615494765</v>
       </c>
       <c r="F2" t="n">
-        <v>1971.751071147242</v>
+        <v>1400.086615494765</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -507,7 +507,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -521,10 +521,10 @@
         <v>1200</v>
       </c>
       <c r="E3" t="n">
-        <v>2055.382345301705</v>
+        <v>1565.787518027639</v>
       </c>
       <c r="F3" t="n">
-        <v>2055.382345301705</v>
+        <v>1565.787518027639</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -537,7 +537,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -551,10 +551,10 @@
         <v>1200</v>
       </c>
       <c r="E4" t="n">
-        <v>2142.657371618907</v>
+        <v>1971.751071147242</v>
       </c>
       <c r="F4" t="n">
-        <v>2142.657371618907</v>
+        <v>1971.751071147242</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -567,7 +567,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -581,10 +581,10 @@
         <v>1200</v>
       </c>
       <c r="E5" t="n">
-        <v>2997.205812028576</v>
+        <v>2055.382345301705</v>
       </c>
       <c r="F5" t="n">
-        <v>2997.205812028576</v>
+        <v>2055.382345301705</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -592,6 +592,2556 @@
         </is>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>72</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2142.657371618907</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2142.657371618907</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>112</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3364.318482532306</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3364.318482532306</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>125</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3683.705480814053</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3683.705480814053</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>152</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4424.657505878665</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4424.657505878665</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>153</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4450.809347779085</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4450.809347779085</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>156</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4554.50826376896</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4554.50826376896</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>160</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>5</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4654.360071901956</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4654.360071901956</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>168</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>5</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4900.528108253407</v>
+      </c>
+      <c r="F13" t="n">
+        <v>4900.528108253407</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>173</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>5</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5026.872728462217</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5026.872728462217</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>177</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>5</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5118.389541544651</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5118.389541544651</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>179</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E16" t="n">
+        <v>5151.12992551998</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5151.12992551998</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>189</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>5</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E17" t="n">
+        <v>5416.978311029839</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5416.978311029839</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>190</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>5</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5418.343724150614</v>
+      </c>
+      <c r="F18" t="n">
+        <v>5418.343724150614</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>214</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>5</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E19" t="n">
+        <v>6161.468703895007</v>
+      </c>
+      <c r="F19" t="n">
+        <v>6161.468703895007</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>219</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>5</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E20" t="n">
+        <v>6263.092160876758</v>
+      </c>
+      <c r="F20" t="n">
+        <v>6263.092160876758</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>226</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>5</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E21" t="n">
+        <v>6478.871530080986</v>
+      </c>
+      <c r="F21" t="n">
+        <v>6478.871530080986</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>237</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>5</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E22" t="n">
+        <v>6883.724541058761</v>
+      </c>
+      <c r="F22" t="n">
+        <v>6883.724541058761</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>238</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>5</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E23" t="n">
+        <v>6904.357406502591</v>
+      </c>
+      <c r="F23" t="n">
+        <v>6904.357406502591</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>239</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>5</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E24" t="n">
+        <v>6937.459544542596</v>
+      </c>
+      <c r="F24" t="n">
+        <v>6937.459544542596</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>281</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>5</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E25" t="n">
+        <v>8211.666775393272</v>
+      </c>
+      <c r="F25" t="n">
+        <v>8211.666775393272</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>286</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>5</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E26" t="n">
+        <v>8384.503845956275</v>
+      </c>
+      <c r="F26" t="n">
+        <v>8384.503845956275</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>294</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>5</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E27" t="n">
+        <v>8674.099068932584</v>
+      </c>
+      <c r="F27" t="n">
+        <v>8674.099068932584</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>297</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>5</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E28" t="n">
+        <v>8718.045442963577</v>
+      </c>
+      <c r="F28" t="n">
+        <v>8718.045442963577</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>307</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>5</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E29" t="n">
+        <v>9021.316227733847</v>
+      </c>
+      <c r="F29" t="n">
+        <v>9021.316227733847</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>316</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>5</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E30" t="n">
+        <v>9200.279728221612</v>
+      </c>
+      <c r="F30" t="n">
+        <v>9200.279728221612</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>317</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>5</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E31" t="n">
+        <v>9224.076351916336</v>
+      </c>
+      <c r="F31" t="n">
+        <v>9224.076351916336</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>332</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>5</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E32" t="n">
+        <v>9602.193823491873</v>
+      </c>
+      <c r="F32" t="n">
+        <v>9602.193823491873</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>361</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>5</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E33" t="n">
+        <v>10504.54877293654</v>
+      </c>
+      <c r="F33" t="n">
+        <v>10504.54877293654</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>364</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>5</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E34" t="n">
+        <v>10609.35507924928</v>
+      </c>
+      <c r="F34" t="n">
+        <v>10609.35507924928</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>529</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>5</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E35" t="n">
+        <v>15910.78706652791</v>
+      </c>
+      <c r="F35" t="n">
+        <v>15910.78706652791</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>544</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>5</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E36" t="n">
+        <v>16361.96641414056</v>
+      </c>
+      <c r="F36" t="n">
+        <v>16361.96641414056</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>550</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>5</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E37" t="n">
+        <v>16536.63311419022</v>
+      </c>
+      <c r="F37" t="n">
+        <v>16536.63311419022</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>551</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>5</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E38" t="n">
+        <v>16566.2056904618</v>
+      </c>
+      <c r="F38" t="n">
+        <v>16566.2056904618</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>556</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>5</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E39" t="n">
+        <v>16769.71129329386</v>
+      </c>
+      <c r="F39" t="n">
+        <v>16769.71129329386</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>581</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>5</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E40" t="n">
+        <v>17552.3900764453</v>
+      </c>
+      <c r="F40" t="n">
+        <v>17552.3900764453</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>583</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>5</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E41" t="n">
+        <v>17583.32967314927</v>
+      </c>
+      <c r="F41" t="n">
+        <v>17583.32967314927</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>605</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>5</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E42" t="n">
+        <v>18311.24902067499</v>
+      </c>
+      <c r="F42" t="n">
+        <v>18311.24902067499</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>628</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>5</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E43" t="n">
+        <v>18965.2087178276</v>
+      </c>
+      <c r="F43" t="n">
+        <v>18965.2087178276</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>728</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>5</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E44" t="n">
+        <v>22056.40309748213</v>
+      </c>
+      <c r="F44" t="n">
+        <v>22056.40309748213</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>730</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>5</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E45" t="n">
+        <v>22097.29312409041</v>
+      </c>
+      <c r="F45" t="n">
+        <v>22097.29312409041</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>750</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>5</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E46" t="n">
+        <v>22687.98561507144</v>
+      </c>
+      <c r="F46" t="n">
+        <v>22687.98561507144</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>758</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>5</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E47" t="n">
+        <v>22871.02989524127</v>
+      </c>
+      <c r="F47" t="n">
+        <v>22871.02989524127</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>768</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>5</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E48" t="n">
+        <v>23155.17000524531</v>
+      </c>
+      <c r="F48" t="n">
+        <v>23155.17000524531</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>776</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>5</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E49" t="n">
+        <v>23331.03201817878</v>
+      </c>
+      <c r="F49" t="n">
+        <v>23331.03201817878</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>783</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>5</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E50" t="n">
+        <v>23517.3245695402</v>
+      </c>
+      <c r="F50" t="n">
+        <v>23517.3245695402</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>786</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>5</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E51" t="n">
+        <v>23595.28029857851</v>
+      </c>
+      <c r="F51" t="n">
+        <v>23595.28029857851</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>805</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>5</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E52" t="n">
+        <v>24116.30865178602</v>
+      </c>
+      <c r="F52" t="n">
+        <v>24116.30865178602</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>851</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>5</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E53" t="n">
+        <v>25520.14078650778</v>
+      </c>
+      <c r="F53" t="n">
+        <v>25520.14078650778</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>853</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>5</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E54" t="n">
+        <v>25559.85076206638</v>
+      </c>
+      <c r="F54" t="n">
+        <v>25559.85076206638</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>854</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>5</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E55" t="n">
+        <v>25573.31325047424</v>
+      </c>
+      <c r="F55" t="n">
+        <v>25573.31325047424</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>856</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>5</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E56" t="n">
+        <v>25605.82799172906</v>
+      </c>
+      <c r="F56" t="n">
+        <v>25605.82799172906</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>857</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>5</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E57" t="n">
+        <v>25618.54503717606</v>
+      </c>
+      <c r="F57" t="n">
+        <v>25618.54503717606</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>967</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>5</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E58" t="n">
+        <v>29015.73414522658</v>
+      </c>
+      <c r="F58" t="n">
+        <v>29015.73414522658</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>970</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>5</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E59" t="n">
+        <v>29123.81722439398</v>
+      </c>
+      <c r="F59" t="n">
+        <v>29123.81722439398</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>973</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>5</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E60" t="n">
+        <v>29222.19192906791</v>
+      </c>
+      <c r="F60" t="n">
+        <v>29222.19192906791</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>974</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>5</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E61" t="n">
+        <v>29225.75368363027</v>
+      </c>
+      <c r="F61" t="n">
+        <v>29225.75368363027</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1005</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>5</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E62" t="n">
+        <v>30252.69771829198</v>
+      </c>
+      <c r="F62" t="n">
+        <v>30252.69771829198</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1007</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>5</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E63" t="n">
+        <v>30312.59659558797</v>
+      </c>
+      <c r="F63" t="n">
+        <v>30312.59659558797</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>5</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E64" t="n">
+        <v>30386.53964386711</v>
+      </c>
+      <c r="F64" t="n">
+        <v>30386.53964386711</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>5</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E65" t="n">
+        <v>30494.12640984761</v>
+      </c>
+      <c r="F65" t="n">
+        <v>30494.12640984761</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1043</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>5</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E66" t="n">
+        <v>31355.34001558726</v>
+      </c>
+      <c r="F66" t="n">
+        <v>31355.34001558726</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>1070</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>5</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E67" t="n">
+        <v>32042.83073055581</v>
+      </c>
+      <c r="F67" t="n">
+        <v>32042.83073055581</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>1071</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>5</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E68" t="n">
+        <v>32058.33815019878</v>
+      </c>
+      <c r="F68" t="n">
+        <v>32058.33815019878</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>1074</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>5</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E69" t="n">
+        <v>32171.00295105194</v>
+      </c>
+      <c r="F69" t="n">
+        <v>32171.00295105194</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>1075</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>5</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E70" t="n">
+        <v>32204.83008894394</v>
+      </c>
+      <c r="F70" t="n">
+        <v>32204.83008894394</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>1086</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>5</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E71" t="n">
+        <v>32429.99485041862</v>
+      </c>
+      <c r="F71" t="n">
+        <v>32429.99485041862</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>1098</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>5</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E72" t="n">
+        <v>32797.1870450145</v>
+      </c>
+      <c r="F72" t="n">
+        <v>32797.1870450145</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>1106</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>5</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E73" t="n">
+        <v>33053.88099872746</v>
+      </c>
+      <c r="F73" t="n">
+        <v>33053.88099872746</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>1108</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>5</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E74" t="n">
+        <v>33103.06633996907</v>
+      </c>
+      <c r="F74" t="n">
+        <v>33103.06633996907</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>1113</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>5</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E75" t="n">
+        <v>33296.75903730354</v>
+      </c>
+      <c r="F75" t="n">
+        <v>33296.75903730354</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>1115</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>5</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E76" t="n">
+        <v>33385.75064423809</v>
+      </c>
+      <c r="F76" t="n">
+        <v>33385.75064423809</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>1120</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>5</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E77" t="n">
+        <v>33552.06155329463</v>
+      </c>
+      <c r="F77" t="n">
+        <v>33552.06155329463</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>1276</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>5</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E78" t="n">
+        <v>38456.76970013545</v>
+      </c>
+      <c r="F78" t="n">
+        <v>38456.76970013545</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>1290</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>5</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E79" t="n">
+        <v>38861.50293667175</v>
+      </c>
+      <c r="F79" t="n">
+        <v>38861.50293667175</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>1291</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>5</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E80" t="n">
+        <v>38902.71893572652</v>
+      </c>
+      <c r="F80" t="n">
+        <v>38902.71893572652</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>1302</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>5</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E81" t="n">
+        <v>39237.53648691187</v>
+      </c>
+      <c r="F81" t="n">
+        <v>39237.53648691187</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>1322</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>5</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E82" t="n">
+        <v>39844.71562936997</v>
+      </c>
+      <c r="F82" t="n">
+        <v>39844.71562936997</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>1342</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>5</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E83" t="n">
+        <v>40456.42747472254</v>
+      </c>
+      <c r="F83" t="n">
+        <v>40456.42747472254</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>1348</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>5</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E84" t="n">
+        <v>40677.94562537094</v>
+      </c>
+      <c r="F84" t="n">
+        <v>40677.94562537094</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>1350</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>5</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E85" t="n">
+        <v>40714.87851377315</v>
+      </c>
+      <c r="F85" t="n">
+        <v>40714.87851377315</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>1362</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>5</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E86" t="n">
+        <v>41048.80209951242</v>
+      </c>
+      <c r="F86" t="n">
+        <v>41048.80209951242</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>1378</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>5</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E87" t="n">
+        <v>41554.16418484806</v>
+      </c>
+      <c r="F87" t="n">
+        <v>41554.16418484806</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>1383</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>5</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E88" t="n">
+        <v>41685.67072721172</v>
+      </c>
+      <c r="F88" t="n">
+        <v>41685.67072721172</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>1403</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>5</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E89" t="n">
+        <v>42314.7557266689</v>
+      </c>
+      <c r="F89" t="n">
+        <v>42314.7557266689</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>1416</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>5</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E90" t="n">
+        <v>42711.773785238</v>
+      </c>
+      <c r="F90" t="n">
+        <v>42711.773785238</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Balked</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
         <v>0</v>
       </c>
     </row>
